--- a/Backup/Archivos XLS/Motivos status pelis.xlsx
+++ b/Backup/Archivos XLS/Motivos status pelis.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\OneDrive\Documents\1. Proyectos Web\ELC-Películas\Backup\Archivos XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9024" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="1a prop." sheetId="1" r:id="rId1"/>
+    <sheet name="2a prop." sheetId="4" r:id="rId2"/>
+    <sheet name="BD" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>Violencia vulgar e innecesaria</t>
   </si>
@@ -38,9 +43,6 @@
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>No tenemos link para revisarla</t>
-  </si>
-  <si>
     <t>Inocua, sin impacto positivo</t>
   </si>
   <si>
@@ -71,16 +73,94 @@
     <t>-</t>
   </si>
   <si>
-    <t>Aplicar penalidad   o SI  o NO</t>
-  </si>
-  <si>
     <t>Duplicada</t>
   </si>
   <si>
     <t>Sensualidad vulgar</t>
   </si>
   <si>
-    <t>Otros valores ajenos a nuestro perfil</t>
+    <t>Distorsiona la memoria del personaje</t>
+  </si>
+  <si>
+    <t>Cameo innecesario</t>
+  </si>
+  <si>
+    <t>El protagonismo no pasa por la vida del santo sino por el preso que se escapó del campo de concentración</t>
+  </si>
+  <si>
+    <t>El protagonismo no pasa por el Papa sino por una historia de amor ficticia en una pareja,  y usa de entorno al Papa y la II Guerra Mundial</t>
+  </si>
+  <si>
+    <t>Se le da excesiva duración al baile sensual a Herodes</t>
+  </si>
+  <si>
+    <t>No es una película sino una obra de teatro</t>
+  </si>
+  <si>
+    <t>Muy antigua</t>
+  </si>
+  <si>
+    <t>Duplicado: pelicula 163</t>
+  </si>
+  <si>
+    <t>La conversión a la fe del protagonista no convence,  se ve superficial</t>
+  </si>
+  <si>
+    <t>No tenemos links sobre ella y es difícil de encontrar</t>
+  </si>
+  <si>
+    <t>Duplicado: capítulo 335</t>
+  </si>
+  <si>
+    <t>No es una colección</t>
+  </si>
+  <si>
+    <t>La vamos a mantener también como colección</t>
+  </si>
+  <si>
+    <t>Duplicado: pelicula 16; no pertenece a esta coleccion</t>
+  </si>
+  <si>
+    <t>Duplicado: capitulo 325; no pertenece a esta colección</t>
+  </si>
+  <si>
+    <t>Duplicado: capitulo 323; no pertenece a esta colección</t>
+  </si>
+  <si>
+    <t>No disponemos de su link</t>
+  </si>
+  <si>
+    <t>Película antigua y sin link</t>
+  </si>
+  <si>
+    <t>Sensualidad</t>
+  </si>
+  <si>
+    <t>Distorsiona</t>
+  </si>
+  <si>
+    <t>Duplicado</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Inocua</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de Detalle</t>
   </si>
 </sst>
 </file>
@@ -110,12 +190,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -156,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -183,9 +269,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,6 +290,181 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Diego" refreshedDate="45455.724094212965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B21" sheet="BD"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Motivo" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Distorsiona"/>
+        <s v="Duplicado"/>
+        <s v="Inocua"/>
+        <s v="Otro"/>
+        <s v="Sensualidad"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Detalle" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+  <r>
+    <x v="0"/>
+    <s v="Distorsiona la memoria del personaje"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Distorsiona la memoria del personaje"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Distorsiona la memoria del personaje"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Duplicado: capitulo 323; no pertenece a esta colección"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Duplicado: capitulo 325; no pertenece a esta colección"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Duplicado: capítulo 335"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Duplicado: pelicula 16; no pertenece a esta coleccion"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Duplicado: pelicula 163"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Muy antigua"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="El protagonismo no pasa por el Papa sino por una historia de amor ficticia en una pareja,  y usa de entorno al Papa y la II Guerra Mundial"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="El protagonismo no pasa por la vida del santo sino por el preso que se escapó del campo de concentración"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="La conversión a la fe del protagonista no convence,  se ve superficial"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="La vamos a mantener también como colección"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="No disponemos de su link"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="No es una colección"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="No es una película sino una obra de teatro"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="No tenemos links sobre ella y es difícil de encontrar"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Película antigua y sin link"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Cameo innecesario"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Se le da excesiva duración al baile sensual a Herodes"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Detalle" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,17 +749,17 @@
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -503,16 +767,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -520,16 +784,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -537,16 +801,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -560,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -571,16 +835,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,16 +843,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9">
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -605,44 +860,302 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B20">
+    <sortCondition ref="A16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Backup/Archivos XLS/Motivos status pelis.xlsx
+++ b/Backup/Archivos XLS/Motivos status pelis.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Violencia vulgar e innecesaria</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Cuenta de Detalle</t>
+  </si>
+  <si>
+    <t>Valores ajenos</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -961,7 +964,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Backup/Archivos XLS/Motivos status pelis.xlsx
+++ b/Backup/Archivos XLS/Motivos status pelis.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Violencia vulgar e innecesaria</t>
   </si>
@@ -118,15 +118,6 @@
     <t>La vamos a mantener también como colección</t>
   </si>
   <si>
-    <t>Duplicado: pelicula 16; no pertenece a esta coleccion</t>
-  </si>
-  <si>
-    <t>Duplicado: capitulo 325; no pertenece a esta colección</t>
-  </si>
-  <si>
-    <t>Duplicado: capitulo 323; no pertenece a esta colección</t>
-  </si>
-  <si>
     <t>No disponemos de su link</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
     <t>Otro</t>
   </si>
   <si>
-    <t>Inocua</t>
-  </si>
-  <si>
     <t>Motivo</t>
   </si>
   <si>
@@ -163,7 +151,13 @@
     <t>Cuenta de Detalle</t>
   </si>
   <si>
-    <t>Valores ajenos</t>
+    <t>No pertenece a esta colección</t>
+  </si>
+  <si>
+    <t>No pertenece</t>
+  </si>
+  <si>
+    <t>Violencia morbosa</t>
   </si>
 </sst>
 </file>
@@ -296,18 +290,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Diego" refreshedDate="45455.724094212965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Diego" refreshedDate="45457.626630902778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B21" sheet="BD"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Motivo" numFmtId="0">
-      <sharedItems count="5">
+      <sharedItems count="6">
+        <s v="No pertenece"/>
+        <s v="Duplicado"/>
         <s v="Distorsiona"/>
-        <s v="Duplicado"/>
-        <s v="Inocua"/>
         <s v="Otro"/>
         <s v="Sensualidad"/>
+        <s v="Inocua" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Detalle" numFmtId="0">
@@ -326,31 +321,19 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
   <r>
     <x v="0"/>
-    <s v="Distorsiona la memoria del personaje"/>
+    <s v="No pertenece a esta colección"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="Distorsiona la memoria del personaje"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Distorsiona la memoria del personaje"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Duplicado: capitulo 323; no pertenece a esta colección"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Duplicado: capitulo 325; no pertenece a esta colección"/>
+    <s v="No pertenece a esta colección"/>
   </r>
   <r>
     <x v="1"/>
     <s v="Duplicado: capítulo 335"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="Duplicado: pelicula 16; no pertenece a esta coleccion"/>
+    <x v="0"/>
+    <s v="No pertenece a esta colección"/>
   </r>
   <r>
     <x v="1"/>
@@ -358,6 +341,18 @@
   </r>
   <r>
     <x v="2"/>
+    <s v="Distorsiona la memoria del personaje"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Distorsiona la memoria del personaje"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Distorsiona la memoria del personaje"/>
+  </r>
+  <r>
+    <x v="3"/>
     <s v="Muy antigua"/>
   </r>
   <r>
@@ -408,16 +403,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="6">
-        <item x="0"/>
+      <items count="7">
+        <item x="2"/>
         <item x="1"/>
-        <item x="2"/>
+        <item m="1" x="5"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -440,16 +436,16 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="5"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -883,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,80 +892,85 @@
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="B5" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="B9" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>37</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -982,38 +983,41 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>26</v>
@@ -1021,15 +1025,15 @@
     </row>
     <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>23</v>
@@ -1037,7 +1041,7 @@
     </row>
     <row r="7" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>16</v>
@@ -1045,7 +1049,7 @@
     </row>
     <row r="8" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>16</v>
@@ -1053,7 +1057,7 @@
     </row>
     <row r="9" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>16</v>
@@ -1061,7 +1065,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1069,7 +1073,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1077,7 +1081,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1085,7 +1089,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1093,7 +1097,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -1101,15 +1105,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -1117,7 +1121,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1125,7 +1129,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1133,15 +1137,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1149,7 +1153,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
